--- a/startup/xlsx/reflectivity.xlsx
+++ b/startup/xlsx/reflectivity.xlsx
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="80">
   <si>
     <t xml:space="preserve">Resonant reflectivity</t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t xml:space="preserve">added resonant reflectivity spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select grid motors by setting position column headers</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1750,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1870,7 +1873,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -1933,7 +1936,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="H2" s="6" t="s">
@@ -3191,7 +3194,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3254,7 +3257,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="H2" s="6" t="s">
@@ -4488,7 +4491,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4512,7 +4515,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4575,7 +4578,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="H2" s="6" t="s">
@@ -5809,7 +5812,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5833,7 +5836,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -5896,7 +5899,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="H2" s="6" t="s">
@@ -7130,7 +7133,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7154,7 +7157,7 @@
       <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -7217,7 +7220,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="H2" s="6" t="s">
@@ -8451,7 +8454,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8465,13 +8468,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -8491,7 +8494,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
         <f aca="false">MAX(A6:A41)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="62"/>
     </row>
@@ -8633,6 +8636,14 @@
       </c>
       <c r="B21" s="0" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
